--- a/biology/Biologie cellulaire et moléculaire/BAFF_(cytokine)/BAFF_(cytokine).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/BAFF_(cytokine)/BAFF_(cytokine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 BAFF (B-cell activating factor) est une cytokine de la famille du facteur de nécrose tumorale. Son gène est le TNFSF13B situé sur le chromosome 13 humain.
@@ -512,9 +524,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il intervient dans le développement des lymphocytes B[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il intervient dans le développement des lymphocytes B. 
 Il a plusieurs ligands, dont le TACI, le récepteur au BAFF (BAFF-R ou TNFRSF13C), le BCMA.
 </t>
         </is>
@@ -544,12 +558,14 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un taux sanguin élevé est retrouvé lors de plusieurs maladies autoimmunes[3], notamment lors d'un lupus, avec pour conséquence une certaine résistance à un traitement par rituximab[4].
-La présence d'une mutation du gène est corrélée avec le risque d'apparition d'une sclérose en plaques ou d'un lupus érythémateux disséminé[5], avec augmentation du taux sanguin du BAFF, stimulant l'immunité humorale.
-Le belimumab est un anticorps monoclonal dirigé contre le BAFF, testé avec une certaine efficacité chez les patients porteurs d'un lupus érythémateux disséminé[6].
-Une expression augmenté du BAFF semble conférer une certaine résistance au paludisme, ce qui pourrait expliquer une certaine sélection de variants de ce gène[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un taux sanguin élevé est retrouvé lors de plusieurs maladies autoimmunes, notamment lors d'un lupus, avec pour conséquence une certaine résistance à un traitement par rituximab.
+La présence d'une mutation du gène est corrélée avec le risque d'apparition d'une sclérose en plaques ou d'un lupus érythémateux disséminé, avec augmentation du taux sanguin du BAFF, stimulant l'immunité humorale.
+Le belimumab est un anticorps monoclonal dirigé contre le BAFF, testé avec une certaine efficacité chez les patients porteurs d'un lupus érythémateux disséminé.
+Une expression augmenté du BAFF semble conférer une certaine résistance au paludisme, ce qui pourrait expliquer une certaine sélection de variants de ce gène.
 </t>
         </is>
       </c>
